--- a/seccion1/07/mapa/excel.xlsx
+++ b/seccion1/07/mapa/excel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Argentina</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>conteo</t>
+  </si>
+  <si>
+    <t>pais</t>
   </si>
 </sst>
 </file>
@@ -881,12 +884,15 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
